--- a/BackTest/2020-01-22 BackTest MCO.xlsx
+++ b/BackTest/2020-01-22 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-732.3592645300001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,21 @@
         <v>-769.0523645300001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5735</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +523,21 @@
         <v>-844.0523645300001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5730</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,21 @@
         <v>-844.0523645300001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5705</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +601,21 @@
         <v>-1279.97796453</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5705</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +640,21 @@
         <v>-1318.49406453</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5695</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +679,21 @@
         <v>-1242.85606453</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5690</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +718,21 @@
         <v>-1242.85606453</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +757,21 @@
         <v>-1173.3826308</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +796,21 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5750</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +835,21 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>5715</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +874,21 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5715</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +913,21 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5715</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +952,21 @@
         <v>-1328.8844308</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5715</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +991,21 @@
         <v>-1277.13832407</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5705</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +1030,21 @@
         <v>-1277.13832407</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5715</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1071,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1108,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1143,17 @@
         <v>-1268.13842407</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1178,15 @@
         <v>-1268.13842407</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1211,15 @@
         <v>-1315.53762407</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1244,15 @@
         <v>-1357.35232407</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1277,15 @@
         <v>-1352.35232407</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1310,15 @@
         <v>-1292.35232407</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1343,15 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1376,15 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1409,15 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1442,15 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1477,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1508,15 @@
         <v>-181759.90772407</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1541,15 @@
         <v>-181801.80902407</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1574,15 @@
         <v>-181801.80902407</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1609,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1640,15 @@
         <v>-181784.79812407</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1675,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1708,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1741,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1774,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1807,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1838,15 @@
         <v>-181011.44952407</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1873,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1904,15 @@
         <v>-181010.44952407</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1939,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1972,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +2003,15 @@
         <v>-180971.5494240701</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +2036,15 @@
         <v>-180975.42062407</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2071,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2104,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2135,15 @@
         <v>-180545.8737240701</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2168,15 @@
         <v>-180569.2122240701</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2203,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2236,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2269,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2302,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2335,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2368,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2401,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2434,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2467,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2498,19 @@
         <v>-180513.3990589301</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>5750</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5750</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2537,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5750</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2576,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5750</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2615,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2648,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2681,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2712,15 @@
         <v>-180392.34175893</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2747,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2778,15 @@
         <v>-179301.99395893</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2811,15 @@
         <v>-179301.99395893</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2844,15 @@
         <v>-179180.1663589301</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2877,15 @@
         <v>-179306.67105893</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2910,15 @@
         <v>-179306.67105893</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2943,15 @@
         <v>-179296.67105893</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2976,15 @@
         <v>-179155.7746589301</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3011,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +3042,15 @@
         <v>-179103.8231589301</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3077,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3110,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3143,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3174,15 @@
         <v>-179391.89585893</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3207,15 @@
         <v>-179391.89585893</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3240,15 @@
         <v>-179340.35155893</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3273,15 @@
         <v>-179340.35155893</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3306,15 @@
         <v>-179750.66665893</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3339,15 @@
         <v>-180836.85205893</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3372,15 @@
         <v>-181068.51155893</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3405,15 @@
         <v>-180744.46875893</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3438,15 @@
         <v>-180913.19324653</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3471,15 @@
         <v>-181140.1278465301</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3506,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3539,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3572,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3605,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3638,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3671,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3704,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3737,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3770,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3803,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3836,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3869,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3902,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3935,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3968,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4001,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +4032,15 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4067,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,22 +4098,15 @@
         <v>-183081.77534653</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>5750</v>
-      </c>
-      <c r="K109" t="n">
-        <v>5750</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4348,26 +4131,15 @@
         <v>-183081.77534653</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>5745</v>
-      </c>
-      <c r="K110" t="n">
-        <v>5750</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4394,24 +4166,13 @@
       <c r="H111" t="n">
         <v>1</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>5745</v>
-      </c>
-      <c r="K111" t="n">
-        <v>5750</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4436,22 +4197,15 @@
         <v>-183085.7291465301</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5740</v>
-      </c>
-      <c r="K112" t="n">
-        <v>5740</v>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4478,24 +4232,13 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>5735</v>
-      </c>
-      <c r="K113" t="n">
-        <v>5740</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4522,24 +4265,13 @@
       <c r="H114" t="n">
         <v>1</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>5730</v>
-      </c>
-      <c r="K114" t="n">
-        <v>5740</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4566,24 +4298,13 @@
       <c r="H115" t="n">
         <v>1</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>5710</v>
-      </c>
-      <c r="K115" t="n">
-        <v>5740</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4608,26 +4329,15 @@
         <v>-183599.03744514</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>5710</v>
-      </c>
-      <c r="K116" t="n">
-        <v>5740</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4654,24 +4364,13 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>5730</v>
-      </c>
-      <c r="K117" t="n">
-        <v>5740</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4698,26 +4397,15 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>5730</v>
-      </c>
-      <c r="K118" t="n">
-        <v>5740</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest MCO.xlsx
+++ b/BackTest/2020-01-22 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-732.3592645300001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-769.0523645300001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-844.0523645300001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -564,15 +552,9 @@
       <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>5705</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-1279.97796453</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,15 +618,9 @@
       <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>5695</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,15 +651,9 @@
       <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>5690</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,15 +684,9 @@
       <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
-        <v>5700</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -759,15 +717,9 @@
       <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>5700</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -798,15 +750,9 @@
       <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>5750</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -837,15 +783,9 @@
       <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
-        <v>5715</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -876,15 +816,9 @@
       <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
-        <v>5715</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -915,15 +849,9 @@
       <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>5715</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -954,15 +882,9 @@
       <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
-        <v>5715</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -993,15 +915,9 @@
       <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
-        <v>5705</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1032,15 +948,9 @@
       <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>5715</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,15 +979,11 @@
         <v>-1274.13842407</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1106,15 +1012,11 @@
         <v>-1274.13842407</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1143,16 +1045,14 @@
         <v>-1268.13842407</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1178,7 +1078,7 @@
         <v>-1268.13842407</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1211,7 +1111,7 @@
         <v>-1315.53762407</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1244,7 +1144,7 @@
         <v>-1357.35232407</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1277,7 +1177,7 @@
         <v>-1352.35232407</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1310,7 +1210,7 @@
         <v>-1292.35232407</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1343,7 +1243,7 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1376,7 +1276,7 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1409,7 +1309,7 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1442,7 +1342,7 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1508,7 +1408,7 @@
         <v>-181759.90772407</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1541,7 +1441,7 @@
         <v>-181801.80902407</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1574,7 +1474,7 @@
         <v>-181801.80902407</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1640,7 +1540,7 @@
         <v>-181784.79812407</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1673,7 +1573,7 @@
         <v>-181797.59242407</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1706,7 +1606,7 @@
         <v>-181797.59242407</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1739,7 +1639,7 @@
         <v>-181647.48852407</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1772,7 +1672,7 @@
         <v>-180869.53632407</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1805,7 +1705,7 @@
         <v>-180883.72762407</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1838,7 +1738,7 @@
         <v>-181011.44952407</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1871,7 +1771,7 @@
         <v>-181010.44952407</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1904,7 +1804,7 @@
         <v>-181010.44952407</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2003,7 +1903,7 @@
         <v>-180971.5494240701</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2036,7 +1936,7 @@
         <v>-180975.42062407</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2135,7 +2035,7 @@
         <v>-180545.8737240701</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2168,7 +2068,7 @@
         <v>-180569.2122240701</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2498,14 +2398,10 @@
         <v>-180513.3990589301</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5750</v>
-      </c>
-      <c r="J61" t="n">
-        <v>5750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2538,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5750</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2577,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5750</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2712,7 +2596,7 @@
         <v>-180392.34175893</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2778,7 +2662,7 @@
         <v>-179301.99395893</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2811,7 +2695,7 @@
         <v>-179301.99395893</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2844,7 +2728,7 @@
         <v>-179180.1663589301</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2877,7 +2761,7 @@
         <v>-179306.67105893</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2910,7 +2794,7 @@
         <v>-179306.67105893</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2943,7 +2827,7 @@
         <v>-179296.67105893</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2976,7 +2860,7 @@
         <v>-179155.7746589301</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3042,7 +2926,7 @@
         <v>-179103.8231589301</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3174,7 +3058,7 @@
         <v>-179391.89585893</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3207,7 +3091,7 @@
         <v>-179391.89585893</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3240,7 +3124,7 @@
         <v>-179340.35155893</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3273,7 +3157,7 @@
         <v>-179340.35155893</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3306,7 +3190,7 @@
         <v>-179750.66665893</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3339,7 +3223,7 @@
         <v>-180836.85205893</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3372,7 +3256,7 @@
         <v>-181068.51155893</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3405,7 +3289,7 @@
         <v>-180744.46875893</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3438,7 +3322,7 @@
         <v>-180913.19324653</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3471,7 +3355,7 @@
         <v>-181140.1278465301</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3768,10 +3652,14 @@
         <v>-182050.44804653</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5780</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5780</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3801,11 +3689,19 @@
         <v>-181987.9170465301</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5780</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3834,11 +3730,19 @@
         <v>-182857.8270465301</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5785</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3867,11 +3771,19 @@
         <v>-182932.1927465301</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5780</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3900,11 +3812,19 @@
         <v>-182932.1927465301</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>5775</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3933,11 +3853,19 @@
         <v>-182932.99764653</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5775</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3966,11 +3894,19 @@
         <v>-182934.28234653</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>5770</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3999,11 +3935,19 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5765</v>
+      </c>
+      <c r="J106" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4034,9 +3978,17 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>5750</v>
+      </c>
+      <c r="J107" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4065,11 +4017,19 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>5750</v>
+      </c>
+      <c r="J108" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4098,11 +4058,19 @@
         <v>-183081.77534653</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5750</v>
+      </c>
+      <c r="J109" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4131,11 +4099,19 @@
         <v>-183081.77534653</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5745</v>
+      </c>
+      <c r="J110" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4166,9 +4142,17 @@
       <c r="H111" t="n">
         <v>1</v>
       </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>5745</v>
+      </c>
+      <c r="J111" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4197,11 +4181,19 @@
         <v>-183085.7291465301</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>5740</v>
+      </c>
+      <c r="J112" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4232,9 +4224,17 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>5735</v>
+      </c>
+      <c r="J113" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4265,9 +4265,17 @@
       <c r="H114" t="n">
         <v>1</v>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>5730</v>
+      </c>
+      <c r="J114" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4298,9 +4306,17 @@
       <c r="H115" t="n">
         <v>1</v>
       </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>5710</v>
+      </c>
+      <c r="J115" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4329,11 +4345,19 @@
         <v>-183599.03744514</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5710</v>
+      </c>
+      <c r="J116" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4364,9 +4388,17 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>5730</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4397,15 +4429,23 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>5730</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest MCO.xlsx
+++ b/BackTest/2020-01-22 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-732.3592645300001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-769.0523645300001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-844.0523645300001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1279.97796453</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1318.49406453</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1242.85606453</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1242.85606453</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1277.13832407</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1277.13832407</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1274.13842407</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1274.13842407</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1268.13842407</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-181797.59242407</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-181797.59242407</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-181647.48852407</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-180869.53632407</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-180883.72762407</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-181011.44952407</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-181010.44952407</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-180491.8977589301</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-180491.3762589301</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-180493.3762589301</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-180509.1762589301</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-180512.87755893</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-180513.3990589301</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3652,14 +3652,10 @@
         <v>-182050.44804653</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5780</v>
-      </c>
-      <c r="J99" t="n">
-        <v>5780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3689,763 +3685,623 @@
         <v>-181987.9170465301</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5785</v>
+      </c>
+      <c r="C101" t="n">
         <v>5780</v>
       </c>
-      <c r="J100" t="n">
+      <c r="D101" t="n">
+        <v>5785</v>
+      </c>
+      <c r="E101" t="n">
         <v>5780</v>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="F101" t="n">
+        <v>869.91</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-182857.8270465301</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5775</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5775</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5775</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5775</v>
+      </c>
+      <c r="F102" t="n">
+        <v>74.3657</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-182932.1927465301</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5775</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5775</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5775</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5775</v>
+      </c>
+      <c r="F103" t="n">
+        <v>288.4453</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-182932.1927465301</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5770</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5770</v>
+      </c>
+      <c r="D104" t="n">
+        <v>5770</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5770</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.8048999999999999</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-182932.99764653</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5765</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5765</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5765</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5765</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.2847</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-182934.28234653</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5750</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5750</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5750</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5750</v>
+      </c>
+      <c r="F106" t="n">
+        <v>135.7636</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-183070.04594653</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5750</v>
+      </c>
+      <c r="C107" t="n">
+        <v>5750</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5750</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5750</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9.209899999999999</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-183070.04594653</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5750</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5750</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5750</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5750</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5.8698</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-183070.04594653</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5745</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5745</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5745</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5745</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11.7294</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-183081.77534653</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5745</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5745</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5745</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5745</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.8586</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-183081.77534653</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5740</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5740</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5740</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5740</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-183082.9753465301</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5735</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5735</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5735</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5735</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.7538</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-183085.7291465301</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5725</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5730</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5730</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5725</v>
+      </c>
+      <c r="F113" t="n">
+        <v>506.3907</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-183592.1198465301</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5710</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5710</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5710</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5710</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10.408</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-183602.5278465301</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5710</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5710</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5710</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5710</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6.4174</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-183602.5278465301</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5730</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5730</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5730</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5730</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3.49040139</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-183599.03744514</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5730</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5730</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5730</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5730</v>
+      </c>
+      <c r="F117" t="n">
+        <v>135.1732</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-183599.03744514</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5730</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5730</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5730</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5730</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5730</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5730</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4.4814</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-183599.03744514</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5730</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5730</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>5785</v>
-      </c>
-      <c r="C101" t="n">
-        <v>5780</v>
-      </c>
-      <c r="D101" t="n">
-        <v>5785</v>
-      </c>
-      <c r="E101" t="n">
-        <v>5780</v>
-      </c>
-      <c r="F101" t="n">
-        <v>869.91</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-182857.8270465301</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5785</v>
-      </c>
-      <c r="J101" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>5775</v>
-      </c>
-      <c r="C102" t="n">
-        <v>5775</v>
-      </c>
-      <c r="D102" t="n">
-        <v>5775</v>
-      </c>
-      <c r="E102" t="n">
-        <v>5775</v>
-      </c>
-      <c r="F102" t="n">
-        <v>74.3657</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-182932.1927465301</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5780</v>
-      </c>
-      <c r="J102" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>5775</v>
-      </c>
-      <c r="C103" t="n">
-        <v>5775</v>
-      </c>
-      <c r="D103" t="n">
-        <v>5775</v>
-      </c>
-      <c r="E103" t="n">
-        <v>5775</v>
-      </c>
-      <c r="F103" t="n">
-        <v>288.4453</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-182932.1927465301</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>5775</v>
-      </c>
-      <c r="J103" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>5770</v>
-      </c>
-      <c r="C104" t="n">
-        <v>5770</v>
-      </c>
-      <c r="D104" t="n">
-        <v>5770</v>
-      </c>
-      <c r="E104" t="n">
-        <v>5770</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.8048999999999999</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-182932.99764653</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5775</v>
-      </c>
-      <c r="J104" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>5765</v>
-      </c>
-      <c r="C105" t="n">
-        <v>5765</v>
-      </c>
-      <c r="D105" t="n">
-        <v>5765</v>
-      </c>
-      <c r="E105" t="n">
-        <v>5765</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1.2847</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-182934.28234653</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>5770</v>
-      </c>
-      <c r="J105" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>5750</v>
-      </c>
-      <c r="C106" t="n">
-        <v>5750</v>
-      </c>
-      <c r="D106" t="n">
-        <v>5750</v>
-      </c>
-      <c r="E106" t="n">
-        <v>5750</v>
-      </c>
-      <c r="F106" t="n">
-        <v>135.7636</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-183070.04594653</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>5765</v>
-      </c>
-      <c r="J106" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>5750</v>
-      </c>
-      <c r="C107" t="n">
-        <v>5750</v>
-      </c>
-      <c r="D107" t="n">
-        <v>5750</v>
-      </c>
-      <c r="E107" t="n">
-        <v>5750</v>
-      </c>
-      <c r="F107" t="n">
-        <v>9.209899999999999</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-183070.04594653</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>5750</v>
-      </c>
-      <c r="J107" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>5750</v>
-      </c>
-      <c r="C108" t="n">
-        <v>5750</v>
-      </c>
-      <c r="D108" t="n">
-        <v>5750</v>
-      </c>
-      <c r="E108" t="n">
-        <v>5750</v>
-      </c>
-      <c r="F108" t="n">
-        <v>5.8698</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-183070.04594653</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>5750</v>
-      </c>
-      <c r="J108" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>5745</v>
-      </c>
-      <c r="C109" t="n">
-        <v>5745</v>
-      </c>
-      <c r="D109" t="n">
-        <v>5745</v>
-      </c>
-      <c r="E109" t="n">
-        <v>5745</v>
-      </c>
-      <c r="F109" t="n">
-        <v>11.7294</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-183081.77534653</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>5750</v>
-      </c>
-      <c r="J109" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>5745</v>
-      </c>
-      <c r="C110" t="n">
-        <v>5745</v>
-      </c>
-      <c r="D110" t="n">
-        <v>5745</v>
-      </c>
-      <c r="E110" t="n">
-        <v>5745</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1.8586</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-183081.77534653</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>5745</v>
-      </c>
-      <c r="J110" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>5740</v>
-      </c>
-      <c r="C111" t="n">
-        <v>5740</v>
-      </c>
-      <c r="D111" t="n">
-        <v>5740</v>
-      </c>
-      <c r="E111" t="n">
-        <v>5740</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-183082.9753465301</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>5745</v>
-      </c>
-      <c r="J111" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>5735</v>
-      </c>
-      <c r="C112" t="n">
-        <v>5735</v>
-      </c>
-      <c r="D112" t="n">
-        <v>5735</v>
-      </c>
-      <c r="E112" t="n">
-        <v>5735</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2.7538</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-183085.7291465301</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>5740</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>5725</v>
-      </c>
-      <c r="C113" t="n">
-        <v>5730</v>
-      </c>
-      <c r="D113" t="n">
-        <v>5730</v>
-      </c>
-      <c r="E113" t="n">
-        <v>5725</v>
-      </c>
-      <c r="F113" t="n">
-        <v>506.3907</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-183592.1198465301</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>5735</v>
-      </c>
-      <c r="J113" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>5710</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5710</v>
-      </c>
-      <c r="D114" t="n">
-        <v>5710</v>
-      </c>
-      <c r="E114" t="n">
-        <v>5710</v>
-      </c>
-      <c r="F114" t="n">
-        <v>10.408</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-183602.5278465301</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5730</v>
-      </c>
-      <c r="J114" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>5710</v>
-      </c>
-      <c r="C115" t="n">
-        <v>5710</v>
-      </c>
-      <c r="D115" t="n">
-        <v>5710</v>
-      </c>
-      <c r="E115" t="n">
-        <v>5710</v>
-      </c>
-      <c r="F115" t="n">
-        <v>6.4174</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-183602.5278465301</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>5710</v>
-      </c>
-      <c r="J115" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>5730</v>
-      </c>
-      <c r="C116" t="n">
-        <v>5730</v>
-      </c>
-      <c r="D116" t="n">
-        <v>5730</v>
-      </c>
-      <c r="E116" t="n">
-        <v>5730</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3.49040139</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-183599.03744514</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>5710</v>
-      </c>
-      <c r="J116" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>5730</v>
-      </c>
-      <c r="C117" t="n">
-        <v>5730</v>
-      </c>
-      <c r="D117" t="n">
-        <v>5730</v>
-      </c>
-      <c r="E117" t="n">
-        <v>5730</v>
-      </c>
-      <c r="F117" t="n">
-        <v>135.1732</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-183599.03744514</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>5730</v>
-      </c>
-      <c r="J117" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>5730</v>
-      </c>
-      <c r="C118" t="n">
-        <v>5730</v>
-      </c>
-      <c r="D118" t="n">
-        <v>5730</v>
-      </c>
-      <c r="E118" t="n">
-        <v>5730</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4.4814</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-183599.03744514</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>5730</v>
-      </c>
-      <c r="J118" t="n">
-        <v>5780</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest MCO.xlsx
+++ b/BackTest/2020-01-22 BackTest MCO.xlsx
@@ -451,7 +451,7 @@
         <v>-732.3592645300001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-769.0523645300001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-844.0523645300001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-844.0523645300001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1279.97796453</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1173.3826308</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1328.8844308</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1268.13842407</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1315.53762407</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1357.35232407</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1352.35232407</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1292.35232407</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-180491.8977589301</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-180491.3762589301</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-180493.3762589301</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-180509.1762589301</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-180512.87755893</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-180513.3990589301</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-179103.8231589301</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-179103.8231589301</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-179062.61585893</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-179062.61585893</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-179062.61585893</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-179391.89585893</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-179391.89585893</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-179340.35155893</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-179340.35155893</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-179750.66665893</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-180836.85205893</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-181068.51155893</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-180744.46875893</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-180913.19324653</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-181140.1278465301</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3520,10 +3520,14 @@
         <v>-181134.20854653</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5835</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5835</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3556,8 +3560,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3596,19 @@
         <v>-181633.9892465301</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5825</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3637,19 @@
         <v>-182050.44804653</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5800</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3678,19 @@
         <v>-182050.44804653</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5780</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3719,19 @@
         <v>-181987.9170465301</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5780</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3760,19 @@
         <v>-182857.8270465301</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5785</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3804,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3840,19 @@
         <v>-182932.1927465301</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>5775</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3881,19 @@
         <v>-182932.99764653</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5775</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3922,19 @@
         <v>-182934.28234653</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>5770</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3963,19 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5765</v>
+      </c>
+      <c r="J106" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4004,19 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>5750</v>
+      </c>
+      <c r="J107" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4045,19 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>5750</v>
+      </c>
+      <c r="J108" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4086,19 @@
         <v>-183081.77534653</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5750</v>
+      </c>
+      <c r="J109" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4127,19 @@
         <v>-183081.77534653</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5745</v>
+      </c>
+      <c r="J110" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4168,19 @@
         <v>-183082.9753465301</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>5745</v>
+      </c>
+      <c r="J111" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4209,19 @@
         <v>-183085.7291465301</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>5740</v>
+      </c>
+      <c r="J112" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4250,19 @@
         <v>-183592.1198465301</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>5735</v>
+      </c>
+      <c r="J113" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4291,19 @@
         <v>-183602.5278465301</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5730</v>
+      </c>
+      <c r="J114" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4332,19 @@
         <v>-183602.5278465301</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5710</v>
+      </c>
+      <c r="J115" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4373,19 @@
         <v>-183599.03744514</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5710</v>
+      </c>
+      <c r="J116" t="n">
+        <v>5835</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4252,9 +4420,13 @@
         <v>5730</v>
       </c>
       <c r="J117" t="n">
-        <v>5730</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+        <v>5835</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4289,11 +4461,11 @@
         <v>5730</v>
       </c>
       <c r="J118" t="n">
-        <v>5730</v>
+        <v>5835</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L118" t="n">

--- a/BackTest/2020-01-22 BackTest MCO.xlsx
+++ b/BackTest/2020-01-22 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>38.5161</v>
       </c>
       <c r="G2" t="n">
-        <v>-732.3592645300001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,21 @@
         <v>36.6931</v>
       </c>
       <c r="G3" t="n">
-        <v>-769.0523645300001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5735</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +509,21 @@
         <v>75</v>
       </c>
       <c r="G4" t="n">
-        <v>-844.0523645300001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5730</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>195</v>
       </c>
       <c r="G5" t="n">
-        <v>-844.0523645300001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5705</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,21 @@
         <v>435.9256</v>
       </c>
       <c r="G6" t="n">
-        <v>-1279.97796453</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5705</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,21 @@
         <v>38.5161</v>
       </c>
       <c r="G7" t="n">
-        <v>-1318.49406453</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>5695</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +653,21 @@
         <v>75.63800000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-1242.85606453</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5690</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,21 @@
         <v>0.0001</v>
       </c>
       <c r="G9" t="n">
-        <v>-1242.85606453</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +725,21 @@
         <v>69.47343373</v>
       </c>
       <c r="G10" t="n">
-        <v>-1173.3826308</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +761,21 @@
         <v>146</v>
       </c>
       <c r="G11" t="n">
-        <v>-1319.3826308</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5750</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +797,21 @@
         <v>66.4599</v>
       </c>
       <c r="G12" t="n">
-        <v>-1319.3826308</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5715</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +833,21 @@
         <v>8.612500000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-1319.3826308</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5715</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +869,21 @@
         <v>18.5193</v>
       </c>
       <c r="G14" t="n">
-        <v>-1319.3826308</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5715</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +905,21 @@
         <v>9.501799999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>-1328.8844308</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5715</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +941,21 @@
         <v>51.74610673</v>
       </c>
       <c r="G16" t="n">
-        <v>-1277.13832407</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5705</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +977,21 @@
         <v>98.4269</v>
       </c>
       <c r="G17" t="n">
-        <v>-1277.13832407</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5715</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1013,21 @@
         <v>2.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>-1274.13842407</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5715</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1049,21 @@
         <v>15.12219327</v>
       </c>
       <c r="G19" t="n">
-        <v>-1274.13842407</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>5735</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1085,21 @@
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>-1268.13842407</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5735</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1121,21 @@
         <v>41.8147</v>
       </c>
       <c r="G21" t="n">
-        <v>-1268.13842407</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1157,21 @@
         <v>47.3992</v>
       </c>
       <c r="G22" t="n">
-        <v>-1315.53762407</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1193,19 @@
         <v>41.8147</v>
       </c>
       <c r="G23" t="n">
-        <v>-1357.35232407</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1227,19 @@
         <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>-1352.35232407</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1261,19 @@
         <v>60</v>
       </c>
       <c r="G25" t="n">
-        <v>-1292.35232407</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1295,19 @@
         <v>181500</v>
       </c>
       <c r="G26" t="n">
-        <v>-182792.35232407</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1329,19 @@
         <v>2458500</v>
       </c>
       <c r="G27" t="n">
-        <v>-182792.35232407</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1363,19 @@
         <v>128.8729</v>
       </c>
       <c r="G28" t="n">
-        <v>-182792.35232407</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1397,19 @@
         <v>182.4364</v>
       </c>
       <c r="G29" t="n">
-        <v>-182792.35232407</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1431,19 @@
         <v>1033.723</v>
       </c>
       <c r="G30" t="n">
-        <v>-181758.62932407</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1465,19 @@
         <v>1.2784</v>
       </c>
       <c r="G31" t="n">
-        <v>-181759.90772407</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1499,19 @@
         <v>41.9013</v>
       </c>
       <c r="G32" t="n">
-        <v>-181801.80902407</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1533,21 @@
         <v>11.441</v>
       </c>
       <c r="G33" t="n">
-        <v>-181801.80902407</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>5730</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1569,21 @@
         <v>17.0109</v>
       </c>
       <c r="G34" t="n">
-        <v>-181784.79812407</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>5730</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1605,19 @@
         <v>49.0253</v>
       </c>
       <c r="G35" t="n">
-        <v>-181784.79812407</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1639,19 @@
         <v>12.7943</v>
       </c>
       <c r="G36" t="n">
-        <v>-181797.59242407</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1673,19 @@
         <v>15</v>
       </c>
       <c r="G37" t="n">
-        <v>-181797.59242407</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1707,19 @@
         <v>150.1039</v>
       </c>
       <c r="G38" t="n">
-        <v>-181647.48852407</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1741,21 @@
         <v>777.9521999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>-180869.53632407</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1777,19 @@
         <v>14.1913</v>
       </c>
       <c r="G40" t="n">
-        <v>-180883.72762407</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1811,21 @@
         <v>127.7219</v>
       </c>
       <c r="G41" t="n">
-        <v>-181011.44952407</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5730</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1847,21 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-181010.44952407</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5725</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1883,21 @@
         <v>9</v>
       </c>
       <c r="G43" t="n">
-        <v>-181010.44952407</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1919,19 @@
         <v>14</v>
       </c>
       <c r="G44" t="n">
-        <v>-180996.44952407</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1953,19 @@
         <v>27</v>
       </c>
       <c r="G45" t="n">
-        <v>-180969.44952407</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1987,19 @@
         <v>2.0999</v>
       </c>
       <c r="G46" t="n">
-        <v>-180971.5494240701</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2021,19 @@
         <v>3.8712</v>
       </c>
       <c r="G47" t="n">
-        <v>-180975.42062407</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2055,21 @@
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>-180973.42062407</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>5725</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2091,19 @@
         <v>46.677</v>
       </c>
       <c r="G49" t="n">
-        <v>-180926.74362407</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2125,19 @@
         <v>380.8699</v>
       </c>
       <c r="G50" t="n">
-        <v>-180545.8737240701</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2159,19 @@
         <v>23.3385</v>
       </c>
       <c r="G51" t="n">
-        <v>-180569.2122240701</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2193,21 @@
         <v>23.3384</v>
       </c>
       <c r="G52" t="n">
-        <v>-180592.5506240701</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2229,21 @@
         <v>73.05714510999999</v>
       </c>
       <c r="G53" t="n">
-        <v>-180519.4934789601</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>5735</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2265,21 @@
         <v>1.0618</v>
       </c>
       <c r="G54" t="n">
-        <v>-180519.4934789601</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>5785</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2301,19 @@
         <v>81.67962003</v>
       </c>
       <c r="G55" t="n">
-        <v>-180437.8138589301</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2335,19 @@
         <v>54.0839</v>
       </c>
       <c r="G56" t="n">
-        <v>-180491.8977589301</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2369,19 @@
         <v>0.5215</v>
       </c>
       <c r="G57" t="n">
-        <v>-180491.3762589301</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2403,19 @@
         <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>-180493.3762589301</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2437,19 @@
         <v>15.8</v>
       </c>
       <c r="G59" t="n">
-        <v>-180509.1762589301</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2471,19 @@
         <v>3.7013</v>
       </c>
       <c r="G60" t="n">
-        <v>-180512.87755893</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2505,21 @@
         <v>0.5215</v>
       </c>
       <c r="G61" t="n">
-        <v>-180513.3990589301</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>5750</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2541,21 @@
         <v>53.576</v>
       </c>
       <c r="G62" t="n">
-        <v>-180459.8230589301</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>5745</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2577,19 @@
         <v>42.8828</v>
       </c>
       <c r="G63" t="n">
-        <v>-180459.8230589301</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2611,19 @@
         <v>41.8458</v>
       </c>
       <c r="G64" t="n">
-        <v>-180417.97725893</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2645,19 @@
         <v>82.3597</v>
       </c>
       <c r="G65" t="n">
-        <v>-180335.61755893</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2679,19 @@
         <v>60.1422</v>
       </c>
       <c r="G66" t="n">
-        <v>-180395.75975893</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2713,19 @@
         <v>3.418</v>
       </c>
       <c r="G67" t="n">
-        <v>-180392.34175893</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2747,19 @@
         <v>81</v>
       </c>
       <c r="G68" t="n">
-        <v>-180311.34175893</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2781,19 @@
         <v>1009.3478</v>
       </c>
       <c r="G69" t="n">
-        <v>-179301.99395893</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2815,19 @@
         <v>143.8767</v>
       </c>
       <c r="G70" t="n">
-        <v>-179301.99395893</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2849,19 @@
         <v>121.8276</v>
       </c>
       <c r="G71" t="n">
-        <v>-179180.1663589301</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2883,19 @@
         <v>126.5047</v>
       </c>
       <c r="G72" t="n">
-        <v>-179306.67105893</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2917,19 @@
         <v>136.1467</v>
       </c>
       <c r="G73" t="n">
-        <v>-179306.67105893</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2951,19 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>-179296.67105893</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2985,19 @@
         <v>140.8964</v>
       </c>
       <c r="G75" t="n">
-        <v>-179155.7746589301</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3019,19 @@
         <v>51.9515</v>
       </c>
       <c r="G76" t="n">
-        <v>-179103.8231589301</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3053,19 @@
         <v>267.9554</v>
       </c>
       <c r="G77" t="n">
-        <v>-179103.8231589301</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3087,19 @@
         <v>41.2073</v>
       </c>
       <c r="G78" t="n">
-        <v>-179062.61585893</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3121,19 @@
         <v>82.3</v>
       </c>
       <c r="G79" t="n">
-        <v>-179062.61585893</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3155,17 @@
         <v>15</v>
       </c>
       <c r="G80" t="n">
-        <v>-179062.61585893</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3187,15 @@
         <v>329.28</v>
       </c>
       <c r="G81" t="n">
-        <v>-179391.89585893</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3217,15 @@
         <v>5.0111</v>
       </c>
       <c r="G82" t="n">
-        <v>-179391.89585893</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3247,15 @@
         <v>51.5443</v>
       </c>
       <c r="G83" t="n">
-        <v>-179340.35155893</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3277,15 @@
         <v>684.804</v>
       </c>
       <c r="G84" t="n">
-        <v>-179340.35155893</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3307,15 @@
         <v>410.3151</v>
       </c>
       <c r="G85" t="n">
-        <v>-179750.66665893</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3337,15 @@
         <v>1086.1854</v>
       </c>
       <c r="G86" t="n">
-        <v>-180836.85205893</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3367,15 @@
         <v>231.6595</v>
       </c>
       <c r="G87" t="n">
-        <v>-181068.51155893</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3397,15 @@
         <v>324.0428</v>
       </c>
       <c r="G88" t="n">
-        <v>-180744.46875893</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3427,15 @@
         <v>168.7244876</v>
       </c>
       <c r="G89" t="n">
-        <v>-180913.19324653</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3457,15 @@
         <v>226.9346</v>
       </c>
       <c r="G90" t="n">
-        <v>-181140.1278465301</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3487,15 @@
         <v>24.9186</v>
       </c>
       <c r="G91" t="n">
-        <v>-181115.2092465301</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3517,15 @@
         <v>10.2107</v>
       </c>
       <c r="G92" t="n">
-        <v>-181125.41994653</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3547,15 @@
         <v>6.1</v>
       </c>
       <c r="G93" t="n">
-        <v>-181125.41994653</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3577,15 @@
         <v>2.6886</v>
       </c>
       <c r="G94" t="n">
-        <v>-181128.10854653</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,22 +3607,15 @@
         <v>6.1</v>
       </c>
       <c r="G95" t="n">
-        <v>-181134.20854653</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5835</v>
-      </c>
-      <c r="J95" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3554,24 +3637,15 @@
         <v>23.5918</v>
       </c>
       <c r="G96" t="n">
-        <v>-181157.80034653</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3593,26 +3667,15 @@
         <v>476.1889</v>
       </c>
       <c r="G97" t="n">
-        <v>-181633.9892465301</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5825</v>
-      </c>
-      <c r="J97" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3634,26 +3697,15 @@
         <v>416.4588</v>
       </c>
       <c r="G98" t="n">
-        <v>-182050.44804653</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5800</v>
-      </c>
-      <c r="J98" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3675,26 +3727,15 @@
         <v>44.3434</v>
       </c>
       <c r="G99" t="n">
-        <v>-182050.44804653</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5780</v>
-      </c>
-      <c r="J99" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3716,26 +3757,15 @@
         <v>62.531</v>
       </c>
       <c r="G100" t="n">
-        <v>-181987.9170465301</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5780</v>
-      </c>
-      <c r="J100" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3757,26 +3787,15 @@
         <v>869.91</v>
       </c>
       <c r="G101" t="n">
-        <v>-182857.8270465301</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5785</v>
-      </c>
-      <c r="J101" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3798,24 +3817,15 @@
         <v>74.3657</v>
       </c>
       <c r="G102" t="n">
-        <v>-182932.1927465301</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3837,26 +3847,15 @@
         <v>288.4453</v>
       </c>
       <c r="G103" t="n">
-        <v>-182932.1927465301</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>5775</v>
-      </c>
-      <c r="J103" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3878,26 +3877,15 @@
         <v>0.8048999999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>-182932.99764653</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5775</v>
-      </c>
-      <c r="J104" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3919,26 +3907,15 @@
         <v>1.2847</v>
       </c>
       <c r="G105" t="n">
-        <v>-182934.28234653</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>5770</v>
-      </c>
-      <c r="J105" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3960,26 +3937,15 @@
         <v>135.7636</v>
       </c>
       <c r="G106" t="n">
-        <v>-183070.04594653</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>5765</v>
-      </c>
-      <c r="J106" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4001,26 +3967,19 @@
         <v>9.209899999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>-183070.04594653</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>5750</v>
       </c>
       <c r="I107" t="n">
         <v>5750</v>
       </c>
-      <c r="J107" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4042,26 +4001,21 @@
         <v>5.8698</v>
       </c>
       <c r="G108" t="n">
-        <v>-183070.04594653</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
         <v>5750</v>
       </c>
-      <c r="J108" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4083,26 +4037,23 @@
         <v>11.7294</v>
       </c>
       <c r="G109" t="n">
-        <v>-183081.77534653</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>5750</v>
       </c>
       <c r="I109" t="n">
         <v>5750</v>
       </c>
-      <c r="J109" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4124,26 +4075,19 @@
         <v>1.8586</v>
       </c>
       <c r="G110" t="n">
-        <v>-183081.77534653</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>5745</v>
       </c>
       <c r="I110" t="n">
         <v>5745</v>
       </c>
-      <c r="J110" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4165,26 +4109,23 @@
         <v>1.2</v>
       </c>
       <c r="G111" t="n">
-        <v>-183082.9753465301</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>5745</v>
       </c>
       <c r="I111" t="n">
         <v>5745</v>
       </c>
-      <c r="J111" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4206,26 +4147,23 @@
         <v>2.7538</v>
       </c>
       <c r="G112" t="n">
-        <v>-183085.7291465301</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>5740</v>
       </c>
       <c r="I112" t="n">
-        <v>5740</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>5745</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4247,26 +4185,23 @@
         <v>506.3907</v>
       </c>
       <c r="G113" t="n">
-        <v>-183592.1198465301</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>5735</v>
       </c>
       <c r="I113" t="n">
-        <v>5735</v>
-      </c>
-      <c r="J113" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>5745</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4288,26 +4223,23 @@
         <v>10.408</v>
       </c>
       <c r="G114" t="n">
-        <v>-183602.5278465301</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>5730</v>
       </c>
       <c r="I114" t="n">
-        <v>5730</v>
-      </c>
-      <c r="J114" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>5745</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4329,26 +4261,23 @@
         <v>6.4174</v>
       </c>
       <c r="G115" t="n">
-        <v>-183602.5278465301</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>5710</v>
       </c>
       <c r="I115" t="n">
-        <v>5710</v>
-      </c>
-      <c r="J115" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>5745</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4370,26 +4299,23 @@
         <v>3.49040139</v>
       </c>
       <c r="G116" t="n">
-        <v>-183599.03744514</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>5710</v>
       </c>
       <c r="I116" t="n">
-        <v>5710</v>
-      </c>
-      <c r="J116" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>5745</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4411,26 +4337,23 @@
         <v>135.1732</v>
       </c>
       <c r="G117" t="n">
-        <v>-183599.03744514</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>5730</v>
       </c>
       <c r="I117" t="n">
-        <v>5730</v>
-      </c>
-      <c r="J117" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>5745</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4452,26 +4375,23 @@
         <v>4.4814</v>
       </c>
       <c r="G118" t="n">
-        <v>-183599.03744514</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>5730</v>
       </c>
       <c r="I118" t="n">
-        <v>5730</v>
-      </c>
-      <c r="J118" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>5745</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
